--- a/results/I3_N5_M2_T30_C200_DepCentral_s0_P2_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepCentral_s0_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>872.9407435361574</v>
+        <v>822.8728587124745</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.004000186920166016</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.39770858716315</v>
+        <v>17.05768396753712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.474156163621442</v>
+        <v>4.02175110787769</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.437191112608901</v>
+        <v>3.836925852814985</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>854.5800000000067</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.37739353073907</v>
+        <v>12.37739353073907</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.90809900789899</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.49989205841819</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1015,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1029,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1077,9 +1077,65 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1182,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>68.17500000000065</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
@@ -1193,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>76.13000000000065</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
@@ -1204,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>75.84000000000066</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10">
@@ -1215,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>76.91000000000065</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -1226,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>75.84999999999999</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
@@ -1237,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>179.5750000000014</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13">
@@ -1248,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>198.1950000000015</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14">
@@ -1259,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>192.5550000000015</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15">
@@ -1270,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>202.12</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16">
@@ -1281,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>198.4800000000014</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17">
@@ -1292,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>208.0599999999993</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -1303,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>189.4349999999993</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -1314,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>206.7149999999993</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -1325,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>193.8399999999993</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -1336,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>203.27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -1347,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1358,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1369,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1380,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1391,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1402,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>256.7950000000012</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
@@ -1413,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>285.5400000000013</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
@@ -1424,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>284.0350000000012</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
@@ -1435,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>293.9799999999997</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
@@ -1446,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>288.8950000000012</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32">
@@ -1457,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>256.7950000000012</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33">
@@ -1468,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>285.5400000000013</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34">
@@ -1479,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>284.0350000000012</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35">
@@ -1490,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>293.9799999999997</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36">
@@ -1501,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>288.8950000000012</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37">
@@ -1512,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>208.0599999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1523,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>189.4349999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1534,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>206.7149999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1545,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>193.8399999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1556,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203.27</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>56.79500000000121</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1614,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>85.54000000000127</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1625,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>84.03500000000122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1636,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>93.97999999999973</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -1647,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>88.89500000000123</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -1658,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8.059999999999347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1680,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>6.714999999999346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1702,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.27</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1859,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1870,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1881,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1892,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1903,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1914,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1936,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1947,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -1958,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -2027,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2065,10 +2121,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2076,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2087,10 +2143,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2098,10 +2154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2112,7 +2168,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2123,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2134,7 +2190,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2145,9 +2201,20 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
